--- a/biology/Zoologie/Foulehaio/Foulehaio.xlsx
+++ b/biology/Zoologie/Foulehaio/Foulehaio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Foulehaio est un genre d'oiseaux de la famille des Meliphagidae. Les oiseaux de ces espèces sont présentes dans les îles polynésiennes.
 </t>
@@ -511,12 +523,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la suite de l'étude phylogénique d'Andersen et al. (2014), le Congrès ornithologique international, dans sa classification de référence (version 5.2, 2015), divise l'espèce Foulehaio carunculatus, jusque-là constituée de trois sous-espèces, en trois espèces distinctes : Foulehaio carunculatus, Foulehaio procerior et Foulehaio taviunensis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'étude phylogénique d'Andersen et al. (2014), le Congrès ornithologique international, dans sa classification de référence (version 5.2, 2015), divise l'espèce Foulehaio carunculatus, jusque-là constituée de trois sous-espèces, en trois espèces distinctes : Foulehaio carunculatus, Foulehaio procerior et Foulehaio taviunensis.
 Quand ces espèces étaient réunies dans le même taxon, celui-ci avait pour nom normalisé CINFO Méliphage foulehaio.
-Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Foulehaio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foulehaio</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Foulehaio carunculatus – (?)
 Foulehaio taviunensis – (?)
 Foulehaio procerior – (?)</t>
